--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,11 +271,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UpgradeEx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +866,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -897,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -911,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.1000000000000001</v>
@@ -925,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -939,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1.3</v>
@@ -953,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1.4</v>
@@ -967,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -981,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1.6</v>
@@ -995,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1.7</v>
@@ -1009,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1.8</v>
@@ -1023,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1.9</v>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,32 @@
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>//解散公会的权利 0表示无 1表示有</t>
+        </r>
+      </text>
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>//退出公会的权限 0表示没有 1表示有</t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -197,16 +219,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +294,22 @@
   </si>
   <si>
     <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DismissWriteAble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitWriteAble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,7 +695,7 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="30.75" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -669,26 +703,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -698,6 +736,12 @@
       </c>
       <c r="E2">
         <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -705,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -715,6 +759,12 @@
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -722,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -732,6 +782,12 @@
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -739,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -749,6 +805,12 @@
       </c>
       <c r="E5">
         <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -756,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -766,6 +828,12 @@
       </c>
       <c r="E6">
         <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -773,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -783,6 +851,12 @@
       </c>
       <c r="E7">
         <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -790,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -800,6 +874,12 @@
       </c>
       <c r="E8">
         <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -807,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -817,6 +897,12 @@
       </c>
       <c r="E9">
         <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -824,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -834,6 +920,12 @@
       </c>
       <c r="E10">
         <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -841,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -851,6 +943,12 @@
       </c>
       <c r="E11">
         <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -876,16 +974,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -893,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -907,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1.1000000000000001</v>
@@ -921,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -935,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1.3</v>
@@ -949,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1.4</v>
@@ -963,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -977,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1.6</v>
@@ -991,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1.7</v>
@@ -1005,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1.8</v>
@@ -1019,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1.9</v>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="1" r:id="rId1"/>
     <sheet name="PinLevel" sheetId="2" r:id="rId2"/>
+    <sheet name="Guild" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -218,8 +219,70 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级所需经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//最大成员数量</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +373,13 @@
   </si>
   <si>
     <t>普通成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCount</t>
+  </si>
+  <si>
+    <t>GuildLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -964,7 +1034,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D1" sqref="D1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1131,4 +1201,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1600</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3200</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6400</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12800</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25600</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>51200</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>102400</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>102400</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="1" r:id="rId1"/>
     <sheet name="PinLevel" sheetId="2" r:id="rId2"/>
     <sheet name="Guild" sheetId="3" r:id="rId3"/>
+    <sheet name="Map" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -281,8 +282,174 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//在月份的几号开启 -1表示所有 10表示10号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//在一周中的星期几开启 -1表示所有 5表示星期五</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//开始时间 字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//结束时间 字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//需要的公会等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +548,39 @@
   <si>
     <t>GuildLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMonthDay</t>
+  </si>
+  <si>
+    <t>OpenWeekhDay</t>
+  </si>
+  <si>
+    <t>OpenStartTime</t>
+  </si>
+  <si>
+    <t>OpenEndTime</t>
+  </si>
+  <si>
+    <t>NeedGuildLevel</t>
+  </si>
+  <si>
+    <t>NextSceneID</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOpen</t>
   </si>
 </sst>
 </file>
@@ -445,9 +645,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1364,4 +1565,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.83334490740740741</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.83334490740740741</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.83334490740740741</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.83334490740740741</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.66667824074074078</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.83334490740740741</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,9 +557,6 @@
     <t>OpenMonthDay</t>
   </si>
   <si>
-    <t>OpenWeekhDay</t>
-  </si>
-  <si>
     <t>OpenStartTime</t>
   </si>
   <si>
@@ -581,6 +578,42 @@
   </si>
   <si>
     <t>IsOpen</t>
+  </si>
+  <si>
+    <t>OpenWeekDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1569,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,28 +1626,28 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1622,22 +1655,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>0.4597222222222222</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="2">
-        <v>0.83334490740740741</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>2001</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -1656,20 +1689,20 @@
       <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="2">
-        <v>0.4597222222222222</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E3" s="2">
-        <v>0.83334490740740741</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>500</v>
+        <v>2002</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -1686,22 +1719,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>0.54305555555555551</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E4" s="2">
-        <v>0.83334490740740741</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>2003</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -1718,22 +1751,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>0.58472222222222225</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E5" s="2">
-        <v>0.83334490740740741</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>500</v>
+        <v>2004</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -1750,22 +1783,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="2">
-        <v>0.62638888888888888</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E6" s="2">
-        <v>0.66667824074074078</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>500</v>
+        <v>2005</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -1782,22 +1815,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>0.62638888888888888</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E7" s="2">
-        <v>0.83334490740740741</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>500</v>
+        <v>2006</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -1808,6 +1841,106 @@
       <c r="J7">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2007</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>2008</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>2009</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,7 +1885,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>0.33333333333333298</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E9" s="2">
         <v>0.97916666666666696</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>0.33333333333333298</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E10" s="2">
         <v>0.97916666666666696</v>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//更改职位的权利 0表示没有 1表示有</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -449,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +640,13 @@
   <si>
     <t>6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副会长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostWriteAble</t>
   </si>
 </sst>
 </file>
@@ -986,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1002,7 +1035,7 @@
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1057,11 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1047,8 +1083,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1070,8 +1109,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1093,8 +1135,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1116,8 +1161,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1139,8 +1187,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1162,8 +1213,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1185,8 +1239,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1208,22 +1265,25 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1231,8 +1291,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1253,6 +1316,9 @@
       </c>
       <c r="G11">
         <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1508,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="1" r:id="rId1"/>
@@ -440,11 +440,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//需要的公会等级</t>
+//清除玩家延时 结束时间之后这么久就清除场景的玩家</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//需要的公会等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +673,9 @@
   </si>
   <si>
     <t>PostWriteAble</t>
+  </si>
+  <si>
+    <t>CleanPlayerDelayTime</t>
   </si>
 </sst>
 </file>
@@ -711,10 +740,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1021,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1668,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,12 +1709,12 @@
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="5" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1701,22 +1731,25 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1730,25 +1763,28 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="2">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="F2" s="3">
+        <v>60</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2001</v>
-      </c>
-      <c r="H2">
-        <v>15</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1764,23 +1800,26 @@
       <c r="E3" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" s="3">
+        <v>60</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2002</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1796,23 +1835,26 @@
       <c r="E4" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
+        <v>60</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2003</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
       </c>
       <c r="I4">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1823,28 +1865,31 @@
         <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>0.33333333333333298</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E5" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2004</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
       </c>
       <c r="I5">
         <v>15</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1860,23 +1905,26 @@
       <c r="E6" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
+        <v>60</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2005</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1892,23 +1940,26 @@
       <c r="E7" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2006</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
       </c>
       <c r="I7">
         <v>15</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1924,23 +1975,26 @@
       <c r="E8" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
+        <v>60</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2007</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1956,23 +2010,26 @@
       <c r="E9" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
+        <v>60</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2008</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
       </c>
       <c r="I9">
         <v>15</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1988,25 +2045,35 @@
       <c r="E10" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
+        <v>60</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2009</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
       </c>
       <c r="I10">
         <v>15</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -496,12 +496,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//地图类型 1:普通 2:公会排名战地图</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +702,13 @@
   </si>
   <si>
     <t>CleanPlayerDelayTime</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapType</t>
   </si>
 </sst>
 </file>
@@ -1698,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1747,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1748,8 +1781,11 @@
       <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1783,8 +1819,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1818,8 +1857,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1853,8 +1895,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1888,8 +1933,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1923,8 +1971,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1958,8 +2009,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1993,8 +2047,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2028,8 +2085,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2063,16 +2123,52 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F11" s="3">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2010</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F13" s="3"/>
     </row>
   </sheetData>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,10 @@
   </si>
   <si>
     <t>MapType</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1734,7 +1738,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2138,13 +2142,13 @@
         <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="E11" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="F11" s="3">
-        <v>60</v>
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G11">
         <v>1</v>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,10 +2142,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>0.67499999999999993</v>
+        <v>0.8125</v>
       </c>
       <c r="E11" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>

--- a/bin/conf/guild.xlsx
+++ b/bin/conf/guild.xlsx
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1803,7 +1803,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="2">
-        <v>0.48055555555555557</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="F2" s="3">
         <v>60</v>
